--- a/Week 11/Resources for Pass Task 9 (LSR)/Work Progress.xlsx
+++ b/Week 11/Resources for Pass Task 9 (LSR)/Work Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COS30043\Tutorials\Week 11\Resources for Pass Task 9 (LSR)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Interface-Design-Projects\Week 11\Resources for Pass Task 9 (LSR)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E8BE7-0B5D-4A21-8F17-9E9D0EB0FEC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD2499-803F-4FF1-BCBF-9AAE3EDCFE46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,6 +335,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,9 +368,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +436,7 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>12%</a:t>
+              <a:t>70%</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-MY" i="1" baseline="0"/>
@@ -532,43 +532,43 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,19 +1169,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="2" max="4" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1217,7 +1217,9 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
         <f>$E$17-F3</f>
         <v>20</v>
@@ -1227,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1240,17 +1242,19 @@
       <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4" s="3">
         <f>G3-F4</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3">
-        <f>H3-E4</f>
+        <f t="shared" ref="H4:H14" si="0">H3-E4</f>
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1263,92 +1267,100 @@
       <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G16" si="0">G4-F5</f>
-        <v>20</v>
+        <f t="shared" ref="G5:G16" si="1">G4-F5</f>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
-        <f>H4-E5</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" ref="C6:D8" si="1">C5+7</f>
+        <f t="shared" ref="C6:D8" si="2">C5+7</f>
         <v>43927</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43933</v>
       </c>
       <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
       <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
-        <f>H5-E6</f>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43934</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43940</v>
       </c>
       <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="3">
-        <f>H6-E7</f>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43941</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43947</v>
       </c>
       <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
       <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H8" s="3">
-        <f>H7-E8</f>
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -1362,17 +1374,19 @@
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
       <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H9" s="3">
-        <f>H8-E9</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -1387,17 +1401,19 @@
       <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H10" s="3">
-        <f>H9-E10</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1412,174 +1428,186 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="3">
-        <f>H10-E11</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" ref="C12:C16" si="2">C11+7</f>
+        <f t="shared" ref="C12:C16" si="3">C11+7</f>
         <v>43976</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" ref="D12:D16" si="3">D11+7</f>
+        <f t="shared" ref="D12:D16" si="4">D11+7</f>
         <v>43982</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
       <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H12" s="3">
-        <f>H11-E12</f>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43983</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43989</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H13" s="3">
-        <f>H12-E13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43990</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43996</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="3">
-        <f>H13-E14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43997</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44003</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ref="H15" si="4">H14-E15</f>
+        <f t="shared" ref="H15" si="5">H14-E15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44004</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44010</v>
       </c>
       <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H16" si="5">H15-E16</f>
+        <f t="shared" ref="H16" si="6">H15-E16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9">
         <f>SUM(E3:E16)</f>
         <v>20</v>
       </c>
       <c r="F17" s="9">
         <f>SUM(F3:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="4">
         <f>F17/E17</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1588,52 +1616,52 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
